--- a/tools/config-to-json/src/GameConfig.xlsx
+++ b/tools/config-to-json/src/GameConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\61935\Desktop\Project\my\vampire-survivors\tools\config-to-json\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC852D11-035D-4581-AD3F-E4EA41B4308A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -19,30 +13,36 @@
     <sheet name="hero" sheetId="4" r:id="rId4"/>
     <sheet name="hero_skill" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dopamine `</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{45C6FEA7-1B2F-4992-A553-AFBD9397796C}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Dopamine `:</t>
@@ -50,9 +50,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -61,15 +59,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{EBB50361-03F4-42E1-B671-FAAED83F06EC}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Dopamine `:</t>
@@ -77,9 +73,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -89,15 +83,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B3F312A5-AC2F-4AE6-B8BA-3EB636F815B2}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Dopamine `:</t>
@@ -105,9 +97,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -124,341 +114,600 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="73">
   <si>
     <t>_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>cooling</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>speed</t>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>怪物id</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>移速</t>
+  </si>
+  <si>
+    <t>enemy_1</t>
+  </si>
+  <si>
+    <t>["enemy_skill_2"]</t>
+  </si>
+  <si>
+    <t>enemy_2</t>
+  </si>
+  <si>
+    <t>enemy_3</t>
+  </si>
+  <si>
+    <t>["enemy_skill_3"]</t>
+  </si>
+  <si>
+    <t>enemy_4</t>
+  </si>
+  <si>
+    <t>["enemy_skill_2","enemy_skill_3"]</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>怪物技能id</t>
   </si>
   <si>
     <t>飞行速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemy_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物技能id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>enemy_skill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>enemy_skill_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>enemy_skill_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>英雄id</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>hero_1</t>
   </si>
   <si>
     <t>[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[enemy_skill_2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[enemy_skill_3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[enemy_skill_2,enemy_skill_3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hero_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hero_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_cooling</t>
+  </si>
+  <si>
+    <t>skill_duration</t>
+  </si>
+  <si>
+    <t>launch_cooling</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>aim_mode</t>
+  </si>
+  <si>
+    <t>damge_range</t>
+  </si>
+  <si>
+    <t>bullet_distance</t>
+  </si>
+  <si>
+    <t>bullet_trigger_count</t>
+  </si>
+  <si>
+    <t>bullet_speed</t>
+  </si>
+  <si>
+    <t>trap_duration</t>
+  </si>
+  <si>
+    <t>trap_trigger_cooling</t>
+  </si>
+  <si>
+    <t>技能id</t>
+  </si>
+  <si>
+    <t>技能冷却</t>
+  </si>
+  <si>
+    <t>技能持续时间</t>
+  </si>
+  <si>
+    <t>发射冷却</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>瞄准模式</t>
+  </si>
+  <si>
+    <t>伤害范围</t>
+  </si>
+  <si>
+    <t>子弹飞行距离</t>
+  </si>
+  <si>
+    <t>子弹穿透个数</t>
+  </si>
+  <si>
+    <t>子弹飞行速度</t>
+  </si>
+  <si>
+    <t>陷阱持续时间</t>
+  </si>
+  <si>
+    <t>陷阱触发冷却</t>
   </si>
   <si>
     <t>hero_skill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指向子弹</t>
+  </si>
+  <si>
+    <t>bullet</t>
+  </si>
+  <si>
+    <t>nearest</t>
+  </si>
+  <si>
+    <t>[30,15]</t>
   </si>
   <si>
     <t>hero_skill_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机子弹</t>
+  </si>
+  <si>
+    <t>random_dir</t>
   </si>
   <si>
     <t>hero_skill_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机陷阱</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>random_pos</t>
+  </si>
+  <si>
+    <t>[200]</t>
   </si>
   <si>
     <t>hero_skill_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>launch_cooling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹飞行距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹穿透个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trap_duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_trigger_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱触发冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bullet_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹飞行速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trap_trigger_cooling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[30,15]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_cooling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能冷却</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damge_range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[200]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瞄准模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aim_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nearest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_dir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伴身陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -466,24 +715,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -532,7 +1067,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -567,7 +1102,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -741,101 +1276,99 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0986F10-3922-4F73-8641-CD178FD35B6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>17</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -844,15 +1377,15 @@
         <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -861,15 +1394,15 @@
         <v>400</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -878,13 +1411,13 @@
         <v>400</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -895,76 +1428,77 @@
         <v>500</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>250</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2B9931-3362-4975-B639-DFEC2F2C8561}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -976,9 +1510,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>250</v>
@@ -990,9 +1524,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -1005,75 +1539,76 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C402B05A-4DE1-4205-A3FF-4DBF10093A6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>500</v>
@@ -1082,12 +1617,12 @@
         <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>500</v>
@@ -1096,12 +1631,12 @@
         <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -1110,176 +1645,177 @@
         <v>300</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEF3CDA-CD8A-4240-866F-E414ED2D34F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="12.53125" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" customWidth="1"/>
-    <col min="11" max="11" width="18.53125" customWidth="1"/>
-    <col min="12" max="12" width="14.86328125" customWidth="1"/>
-    <col min="13" max="13" width="12.9296875" customWidth="1"/>
-    <col min="14" max="14" width="18.06640625" customWidth="1"/>
+    <col min="1" max="1" width="12.5333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.2" customWidth="1"/>
+    <col min="5" max="5" width="15.4" customWidth="1"/>
+    <col min="6" max="6" width="15.7333333333333" customWidth="1"/>
+    <col min="8" max="8" width="14.4" customWidth="1"/>
+    <col min="9" max="9" width="12.2666666666667" customWidth="1"/>
+    <col min="10" max="10" width="14.8" customWidth="1"/>
+    <col min="11" max="11" width="18.5333333333333" customWidth="1"/>
+    <col min="12" max="12" width="14.8666666666667" customWidth="1"/>
+    <col min="13" max="13" width="12.9333333333333" customWidth="1"/>
+    <col min="14" max="14" width="18.0666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1294,13 +1830,13 @@
         <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4">
         <v>1000</v>
@@ -1312,12 +1848,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -1332,13 +1868,13 @@
         <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J5">
         <v>1000</v>
@@ -1350,12 +1886,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1370,13 +1906,13 @@
         <v>2000</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M6">
         <v>3000</v>
@@ -1385,9 +1921,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -1400,8 +1936,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>